--- a/data/Root_dmg_larvae.xlsx
+++ b/data/Root_dmg_larvae.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F71F6BFE-3DDB-4150-8984-A5A1123CF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{F71F6BFE-3DDB-4150-8984-A5A1123CF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F52B71-D448-423E-9931-3ED858479E8C}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{A177F312-885D-4C3E-B7CD-5AC6AA8F4DA1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Daño en raiz (asoc. a larvas)" sheetId="1" r:id="rId1"/>
+    <sheet name="Root_dmg (+larvae)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,28 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="13">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>ID Parcela</t>
-  </si>
-  <si>
-    <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>Repetición</t>
-  </si>
-  <si>
-    <t>Peso biomasa raiz</t>
-  </si>
-  <si>
-    <t>N larvas</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="12">
   <si>
     <t>FE</t>
   </si>
@@ -71,10 +50,28 @@
     <t>FO</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>NO SE PUEDEN ASOCIAR LAS LARVAS A ESTE PESO (APUNTADO EN ORDEN EQUIVOCADO)</t>
   </si>
   <si>
-    <t>NO SE PUEDEN ASOCIAR LAS LARVAS A ESTE PESO (APUNTADO EN ORDEN EQUIVOCADO)</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Root_weight</t>
+  </si>
+  <si>
+    <t>N_larvae</t>
+  </si>
+  <si>
+    <t>Observations</t>
   </si>
 </sst>
 </file>
@@ -275,13 +272,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25E7EFB3-A5C8-4981-9AD2-5D1D3E54427A}" name="Tabla53" displayName="Tabla53" ref="A1:G201" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G201" xr:uid="{7F76055B-7275-47D3-8C12-1235C3A8AA54}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9084F76A-CA7B-4D4E-A144-D01E7D1CD34C}" name="Fecha" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{E7DCCA9E-3191-45E0-8D8F-56061E0E9B19}" name="ID Parcela" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2F469E28-07AF-4B6A-8512-6AB30EF1C64F}" name="Tratamiento" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{0B39AAA9-C99A-4194-B0DC-A6BC2F9F8475}" name="Repetición" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{72B1AF0F-F584-459D-80E7-A20A2B4C7F70}" name="Peso biomasa raiz" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{C1CEC9D0-1F0F-4DD5-B2B4-273BBE8A147F}" name="N larvas" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{63F047AF-C1D5-4105-A256-C8ECC2D15B79}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{9084F76A-CA7B-4D4E-A144-D01E7D1CD34C}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{E7DCCA9E-3191-45E0-8D8F-56061E0E9B19}" name="Field" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2F469E28-07AF-4B6A-8512-6AB30EF1C64F}" name="Treatment" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0B39AAA9-C99A-4194-B0DC-A6BC2F9F8475}" name="Repeat" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{72B1AF0F-F584-459D-80E7-A20A2B4C7F70}" name="Root_weight" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{C1CEC9D0-1F0F-4DD5-B2B4-273BBE8A147F}" name="N_larvae" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{63F047AF-C1D5-4105-A256-C8ECC2D15B79}" name="Observations" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,42 +583,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225BA0C1-7E32-4030-86B3-127CFBE0CBA7}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
-    <col min="7" max="7" width="140.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -632,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -653,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -674,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -695,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -716,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -737,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -758,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -779,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -800,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -821,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
@@ -842,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -863,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>2</v>
@@ -884,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -905,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>4</v>
@@ -926,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
@@ -947,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -968,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -989,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -1010,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -1031,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -1052,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1073,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1094,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1115,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -1136,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -1157,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1178,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
         <v>2</v>
@@ -1199,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -1220,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1">
         <v>4</v>
@@ -1241,7 +1238,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <v>5</v>
@@ -1262,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1283,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -1304,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -1325,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -1346,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -1367,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -1388,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -1409,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -1430,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D40" s="1">
         <v>4</v>
@@ -1451,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1">
         <v>5</v>
@@ -1472,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1493,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D43" s="1">
         <v>2</v>
@@ -1514,7 +1511,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -1535,7 +1532,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
         <v>4</v>
@@ -1556,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D46" s="1">
         <v>5</v>
@@ -1577,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1598,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <v>2</v>
@@ -1619,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -1640,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
         <v>4</v>
@@ -1661,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
         <v>5</v>
@@ -1682,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -1703,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D53" s="1">
         <v>2</v>
@@ -1724,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -1745,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
@@ -1766,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
         <v>5</v>
@@ -1787,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -1808,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -1829,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -1850,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D60" s="1">
         <v>4</v>
@@ -1871,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D61" s="1">
         <v>5</v>
@@ -1892,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -1913,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -1934,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -1955,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -1976,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
@@ -1997,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -2018,7 +2015,7 @@
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -2039,7 +2036,7 @@
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -2060,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
         <v>4</v>
@@ -2081,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
@@ -2102,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -2123,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1">
         <v>2</v>
@@ -2144,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -2165,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D75" s="1">
         <v>4</v>
@@ -2186,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
@@ -2207,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -2228,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D78" s="1">
         <v>2</v>
@@ -2249,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -2270,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
@@ -2291,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
@@ -2312,7 +2309,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2333,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
         <v>2</v>
@@ -2354,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
@@ -2375,7 +2372,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
         <v>4</v>
@@ -2396,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
         <v>5</v>
@@ -2417,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2438,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D88" s="1">
         <v>2</v>
@@ -2459,7 +2456,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
@@ -2480,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D90" s="1">
         <v>4</v>
@@ -2501,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1">
         <v>5</v>
@@ -2522,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -2543,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
@@ -2564,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -2585,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -2606,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -2627,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -2648,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D98" s="1">
         <v>2</v>
@@ -2669,7 +2666,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -2690,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D100" s="1">
         <v>4</v>
@@ -2711,7 +2708,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1">
         <v>5</v>
@@ -2732,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
@@ -2753,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
         <v>2</v>
@@ -2774,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
@@ -2795,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
         <v>4</v>
@@ -2816,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
@@ -2837,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
@@ -2858,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
         <v>2</v>
@@ -2879,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
@@ -2900,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1">
         <v>4</v>
@@ -2921,7 +2918,7 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D111" s="1">
         <v>5</v>
@@ -2942,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
@@ -2963,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D113" s="1">
         <v>2</v>
@@ -2984,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D114" s="1">
         <v>3</v>
@@ -3005,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D115" s="1">
         <v>4</v>
@@ -3026,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1">
         <v>5</v>
@@ -3047,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
@@ -3068,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D118" s="1">
         <v>2</v>
@@ -3089,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D119" s="1">
         <v>3</v>
@@ -3110,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D120" s="1">
         <v>4</v>
@@ -3131,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
@@ -3152,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -3173,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -3194,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
@@ -3215,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1">
         <v>4</v>
@@ -3236,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
@@ -3257,7 +3254,7 @@
         <v>2</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
@@ -3278,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D128" s="1">
         <v>2</v>
@@ -3299,7 +3296,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D129" s="1">
         <v>3</v>
@@ -3320,7 +3317,7 @@
         <v>2</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D130" s="1">
         <v>4</v>
@@ -3341,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D131" s="1">
         <v>5</v>
@@ -3362,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
@@ -3370,11 +3367,9 @@
       <c r="E132" s="1">
         <v>0.98</v>
       </c>
-      <c r="F132" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F132" s="1"/>
       <c r="G132" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -3385,7 +3380,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1">
         <v>2</v>
@@ -3393,11 +3388,9 @@
       <c r="E133" s="1">
         <v>1.23</v>
       </c>
-      <c r="F133" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F133" s="1"/>
       <c r="G133" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -3408,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D134" s="1">
         <v>3</v>
@@ -3429,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D135" s="1">
         <v>4</v>
@@ -3437,11 +3430,9 @@
       <c r="E135" s="1">
         <v>1.23</v>
       </c>
-      <c r="F135" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -3452,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
@@ -3460,11 +3451,9 @@
       <c r="E136" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F136" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F136" s="1"/>
       <c r="G136" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -3475,7 +3464,7 @@
         <v>2</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
@@ -3496,7 +3485,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D138" s="1">
         <v>2</v>
@@ -3517,7 +3506,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D139" s="1">
         <v>3</v>
@@ -3538,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D140" s="1">
         <v>4</v>
@@ -3559,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1">
         <v>5</v>
@@ -3580,7 +3569,7 @@
         <v>3</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
@@ -3601,7 +3590,7 @@
         <v>3</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D143" s="1">
         <v>2</v>
@@ -3622,7 +3611,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D144" s="1">
         <v>3</v>
@@ -3643,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D145" s="1">
         <v>4</v>
@@ -3664,7 +3653,7 @@
         <v>3</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D146" s="1">
         <v>5</v>
@@ -3685,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
@@ -3706,7 +3695,7 @@
         <v>3</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1">
         <v>2</v>
@@ -3727,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D149" s="1">
         <v>3</v>
@@ -3748,7 +3737,7 @@
         <v>3</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D150" s="1">
         <v>4</v>
@@ -3769,7 +3758,7 @@
         <v>3</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D151" s="1">
         <v>5</v>
@@ -3790,7 +3779,7 @@
         <v>3</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -3811,7 +3800,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D153" s="1">
         <v>2</v>
@@ -3832,7 +3821,7 @@
         <v>3</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D154" s="1">
         <v>3</v>
@@ -3853,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D155" s="1">
         <v>4</v>
@@ -3874,7 +3863,7 @@
         <v>3</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D156" s="1">
         <v>5</v>
@@ -3895,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
@@ -3916,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D158" s="1">
         <v>2</v>
@@ -3937,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D159" s="1">
         <v>3</v>
@@ -3958,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D160" s="1">
         <v>4</v>
@@ -3979,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D161" s="1">
         <v>5</v>
@@ -4000,7 +3989,7 @@
         <v>4</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -4021,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D163" s="1">
         <v>2</v>
@@ -4042,7 +4031,7 @@
         <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1">
         <v>3</v>
@@ -4063,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1">
         <v>4</v>
@@ -4084,7 +4073,7 @@
         <v>4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D166" s="1">
         <v>5</v>
@@ -4105,7 +4094,7 @@
         <v>4</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -4126,7 +4115,7 @@
         <v>4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D168" s="1">
         <v>2</v>
@@ -4147,7 +4136,7 @@
         <v>4</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D169" s="1">
         <v>3</v>
@@ -4168,7 +4157,7 @@
         <v>4</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1">
         <v>4</v>
@@ -4189,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D171" s="1">
         <v>5</v>
@@ -4210,7 +4199,7 @@
         <v>4</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -4231,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D173" s="1">
         <v>2</v>
@@ -4252,7 +4241,7 @@
         <v>4</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D174" s="1">
         <v>3</v>
@@ -4273,7 +4262,7 @@
         <v>4</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D175" s="1">
         <v>4</v>
@@ -4294,7 +4283,7 @@
         <v>4</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D176" s="1">
         <v>5</v>
@@ -4315,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
@@ -4336,7 +4325,7 @@
         <v>4</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D178" s="1">
         <v>2</v>
@@ -4357,7 +4346,7 @@
         <v>4</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D179" s="1">
         <v>3</v>
@@ -4378,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D180" s="1">
         <v>4</v>
@@ -4399,7 +4388,7 @@
         <v>4</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D181" s="1">
         <v>5</v>
@@ -4420,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -4441,7 +4430,7 @@
         <v>5</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D183" s="1">
         <v>2</v>
@@ -4462,7 +4451,7 @@
         <v>5</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D184" s="1">
         <v>3</v>
@@ -4483,7 +4472,7 @@
         <v>5</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D185" s="1">
         <v>4</v>
@@ -4504,7 +4493,7 @@
         <v>5</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D186" s="1">
         <v>5</v>
@@ -4525,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
@@ -4546,7 +4535,7 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -4567,7 +4556,7 @@
         <v>5</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D189" s="1">
         <v>3</v>
@@ -4588,7 +4577,7 @@
         <v>5</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D190" s="1">
         <v>4</v>
@@ -4609,7 +4598,7 @@
         <v>5</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D191" s="1">
         <v>5</v>
@@ -4630,7 +4619,7 @@
         <v>5</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -4651,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -4672,7 +4661,7 @@
         <v>5</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D194" s="1">
         <v>3</v>
@@ -4693,7 +4682,7 @@
         <v>5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D195" s="1">
         <v>4</v>
@@ -4714,7 +4703,7 @@
         <v>5</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D196" s="1">
         <v>5</v>
@@ -4735,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -4756,7 +4745,7 @@
         <v>5</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -4777,7 +4766,7 @@
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D199" s="1">
         <v>3</v>
@@ -4798,7 +4787,7 @@
         <v>5</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D200" s="1">
         <v>4</v>
@@ -4819,7 +4808,7 @@
         <v>5</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D201" s="1">
         <v>5</v>
